--- a/src/evaluation/model_answers_original.xlsx
+++ b/src/evaluation/model_answers_original.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sellsol/Documents/University/2025 units/Honours project/Code/Hons25_Heidi/src/evaluation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB5C343F-2783-BD49-85C7-EA7B8764B9ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAB6176F-3FAB-1A4E-A6F3-B9C3A06864E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="82">
   <si>
     <t>ID</t>
   </si>
@@ -101,9 +101,6 @@
     <t>What is the failure mode most likely to be detected in the power train?</t>
   </si>
   <si>
-    <t>How many distinct sub-components are listed in the data</t>
-  </si>
-  <si>
     <t>What is the average RPN of all failure modes for the charging and ignition component of the electrical system</t>
   </si>
   <si>
@@ -144,9 +141,6 @@
   </si>
   <si>
     <t>What are the failure modes in the Cylinders component of the Hydraulic System, that may be caused by natural degradation over time?</t>
-  </si>
-  <si>
-    <t>Give me some information and summary statistics about the hydraulic system.</t>
   </si>
   <si>
     <t>How many failure modes are there for the Upbox Housing?</t>
@@ -305,11 +299,139 @@
 </t>
   </si>
   <si>
+    <t>How many sub-components are listed in the data</t>
+  </si>
+  <si>
     <t xml:space="preserve">The Cylinders component in the Hydraulic System subsystem has the following failure modes with failure causes related to natural degradation over time:
 • Leaking in the Suspension Cylinder subcomponent, with the failure cause General wear and tear, Physical impacts, incorrect installation of seals
 • Wearing in the Suspension Bushing subcomponent, with the failure cause Wearing over time
 • Leaking in the Steering Cylinder subcomponent, with the failure cause General wear and tear, steering controll valve failure, incorrect installation of seals
-• Leaking in the Hoist Cylinder subcompoennt, with the failure cause General wear and tear, physical impacts, incorrect installation of seal or cylinder
+• Leaking in the Hoist Cylinder subcomponent, with the failure cause General wear and tear, physical impacts, incorrect installation of seal or cylinder
+</t>
+  </si>
+  <si>
+    <t>Are there any recommended actions that prescribe actions past just a check in the fuel system?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There is one recommended action above simple checking - Drain and flush fuel tank during 1000 hour service. on the Cracked and leaking failure mode. This is located in the Fuel Tank subcomponent of the Fuel System component.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There is only one failure mode for the Housing subcomponent of the Upbox component, called Wearing.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What current controls on the Air Intake System are just to perform a check on a regular interval. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Air Intake System Component has the following current controls that simply involve performing a regular check:
+• Visual inspection daily for damages for the Physical Damage failure mode on the Air filter housing subcomponent.
+• Inspect induction hoses and joints every 125 hour service for the Leaking failure mode on the Turbocharger subcomponent.
+• Visual inspection on 125 hour services for the Physical damage failure mode on the Charge Air Cooler subcomponent.
+• Visual inspection on 125 hour services for the Physical damage failure mode on the Inlet Manifold subcomponent.
+• Visual inspection on 125 hour services for the Leaking failure mode on the Inlet Manifold subcomponent.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Are there any failure modes affecting personnel safety that do not have a severity score of 3 or above?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Some failure modes all with a severity score of 2 that directly affect personnel safety are:
+• Corrosion on the Cameras subcomponent of the Electrical System subsystem and Data Collection Unit (DCU) have the failure effect Reduced ability to successfully move machinery safely.
+• Wearing on the Cameras subcomponent of the Electrical System subsystem and Data Collection Unit (DCU) has the failure effect Reduced ability to successfully move machinery safely.
+• Wearing on the Hand Rails subcomponent of the Power Frame subsystem and Hoods and Covers component has the failure effect Difficulty in gaining access to machine above safe working height.
+• Wearing on the Cabin Assembly subcomponent of the Power Frame subsystem and Cabin component has the failure effect Unsafe Working environment, windows, and doors no longer fit.
+• Wearing on the Drivers Seat subcomponent of the Power Frame subsystem and Cabin component has the failure effect Unsafe working environment. 
+• Wearing on the Windows subcomponent of the Power Frame subsystem and Cabin component has the failure effect Unsafe working environment. 
+• Overloading on the Grease Pump subcomponent of the Power Frame subsystem and Greasing system component has the failure effect Shorting of live wires to ground, or electrical component failure.
+There are also several other failure modes below a severity score of 3 with effects that may indirectly affect personnel safety, such as fire hazards and false readings. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What are the failure modes in the Power Train subsystem, which have recommended actions related to lubrication?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Power Train subsystem has the following failure modes with recommended actions related to lubrication:
+• Corrosion in the Transmission component and Electronic control unit (ECU) subcomponent, with the recommended action Investigate method to include auto-electrical servicing in PM services. Grease (add sealant) all connections and plugs every 500 hour service.
+• Wearing in the Drivelines component and Articulation Driveline subcompoennt, with the recommended action Inspect and lubricate driveline slip joint and universal joints on 125\ hour service. Inspect for optimal replacement interval of component.
+</t>
+  </si>
+  <si>
+    <t>What Failure Modes in the Fuel System are related to overheating?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Fuel System component has the following failure modes with failure effects related to overheating and high temperatures:
+• Cracked or Leaking in the Fuel Tank subcomponent, with the failure effect Fuel loss, fire.
+• Leaking in the Fuel Cooler subcomponent, with the failure effect Loss of power, engine overheating.
+• Wearing in the Fuel Cooler subcomponent, with the failure effect Loss of power, engine overheating.
+• Mechanical failure in the Fuel Cooler subcomponent, with the failure effect Fuel overheating.
+• Leaking in the Fuel Filter subcomponent, with the failure effect Loss of power, fire.
+• Physical Damage in the Fuel Filter subcomponent, with the failure effect Fuel leak, fire.
+• Leaking in the Fuel Lines/Rail subcomponent, with the failure effect Loss of power, fire.
+• Physical Damage in the Fuel Lines/Rail subcomponent, with the failure effect Loss of power, fire.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">List all the failure modes in the Electrical System's PLC in descending order of their RPN.
+</t>
+  </si>
+  <si>
+    <t>Any failure modes with an RPN less than 5? What are their other numerical values?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The following failure modes have an RPN less than 5:
+• Corrosion in the Electrical System subsystem, Transmission Electronic Control Unit (ECU) component and Solenoid Wiring subcomponent with an RPN of 0. It has a severity of 2, occurrence of 2 and detection of 3. 
+• Wearing in the Power Frame subsystem, Hoods and Covers component and Covers subcomponent with an RPN of 2. It has a severity of 1, occurrence of 2 and detection of 1.
+• Broken in the Power Unit subsystem, Lubrication System component and Dipstick subcomponent with an RPN of 3. It has a severity of 1, occurrence of 3 and detection of 1.
+• Leaking in the Hydraulic System subsystem, Cylinders component and Hoist Cylinder subcomponent with an RPN of 4. It has a severity of 2, occurrence of 1 and detection of 2.
+• Physical damage in the Electrical System subsystem, Data Collection Unit (DCU) component and Gauges subcomponent with an RPN of 4. It has a severity of 2, occurrence of 2 and detection of 1.
+</t>
+  </si>
+  <si>
+    <t>What are the failure modes in the Cylinders component of the Hydraulic System, that may be caused by wearing?</t>
+  </si>
+  <si>
+    <t>What is the potential cause of discharge on the AFFF?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Unintentional discharge failure mode in the Cylinder subcomponent, of the AFFF component of the Fire Suppression System subsystem, has the failure cause Activation due to line failure or other accidental means.
+The following failure modes also lead to potential failure modes that reference unintentional discharge, so they may be the causes:
+• Wearing in the Hoses subcomponent leads to the potential failure effect Reduced capacity to use effectively, may cause unintentional discharge of AFFF system.
+• Wearing in the Mounting Point subcomponent leads to the potential failure effect May cause damage to the cylinder, loss of cylinder, unintentional discharge of AFFF system.
+• Wearing in the Activation System &amp; Gauge subcomponent leads to the potential failure effect May cause unintentional discharge of AFFF system or inability to discharge system, system pressure may not be accurately displayed.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The knowledge base has the following 23 failure modes in the Electrical System subsystem and Programmable Logic Controller (PLC) component, in descending order of RPN values:
+1. Corrosion in the Monitor dump box position subcomponent, with an RPN of 27.
+2. The following 5 failure modes, with an RPN of 18:
+    • Overloading in the Monitor dump box position subcomponent.
+    • Corrosion in the Release or set the parking brake subcomponent.
+    • Overloading in the Release or set the parking brake subcomponent.
+    • Corrosion in the Park Brake Switch subcomponent.
+    • Overloading in the Park Brake Switch subcomponent.
+7. The following 12 failure modes, with an RPN of 12:
+    • Wearing in the Monitor dump box position subcomponent.
+    • Corrosion in the Alarms and lights subcomponent.
+    • Wearing in the Alarms and lights subcomponent.
+    • Corrosion in the Reverse Alarm subcomponent.
+    • Wearing in the Reverse Alarm subcomponent.
+    • Physical damage in the Park Brake Switch subcomponent.
+    • Corrosion in the Dash subcomponent.
+    • Overloading in the Dash subcomponent.
+    • Corrosion in the Gears Sensor subcomponent.
+    • Overloading in the Gears Sensor subcomponent.
+    • Corrosion in the Transmission Sensor subcomponent.
+    • Overloading in the Transmission Sensor subcomponent.
+19. The following 5 failure modes, with an RPN of 8:
+    • Overloading in the Alarms and lights subcomponent.
+    • Overloading in the Reverse Alarm subcomponent.
+    • Physical damage in the Dash subcomponent.
+    • Physical damage in the Gears Sensor subcomponent.
+    • Physical damage in the Transmission Sensor subcomponent.
 </t>
   </si>
 </sst>
@@ -367,7 +489,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -376,6 +498,9 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -680,375 +805,470 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="8.83203125" style="2"/>
-    <col min="3" max="3" width="40" style="2" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="2"/>
+    <col min="2" max="2" width="54.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="79.33203125" style="2" customWidth="1"/>
     <col min="4" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4" ht="48" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
+    <row r="2" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="48" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
+    <row r="3" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="80" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
+    <row r="4" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="128" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="64" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
+    <row r="7" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="144" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="176" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="B9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="144" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="96" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
+      <c r="B10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="80" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="80" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
+      <c r="B11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="192" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="160" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2" t="s">
+      <c r="B12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="160" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="96" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="320" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="48" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="160" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
+    <row r="14" spans="1:4" ht="96" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="112" x14ac:dyDescent="0.2">
-      <c r="A15" s="2">
-        <v>14</v>
-      </c>
-      <c r="B15" s="2" t="s">
+    <row r="17" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="128" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="80" x14ac:dyDescent="0.2">
-      <c r="A16" s="2">
-        <v>15</v>
-      </c>
-      <c r="B16" s="2" t="s">
+      <c r="B20" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="64" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="48" x14ac:dyDescent="0.2">
-      <c r="A17" s="2">
-        <v>16</v>
-      </c>
-      <c r="B17" s="2" t="s">
+      <c r="B21" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="96" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
         <v>21</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="80" x14ac:dyDescent="0.2">
-      <c r="A18" s="2">
-        <v>17</v>
-      </c>
-      <c r="B18" s="2" t="s">
+      <c r="B22" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
         <v>22</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="48" x14ac:dyDescent="0.2">
-      <c r="A19" s="2">
-        <v>18</v>
-      </c>
-      <c r="B19" s="2" t="s">
+      <c r="B23" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="128" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
         <v>23</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="208" x14ac:dyDescent="0.2">
-      <c r="A20" s="2">
-        <v>19</v>
-      </c>
-      <c r="B20" s="2" t="s">
+      <c r="B24" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
         <v>24</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="112" x14ac:dyDescent="0.2">
-      <c r="A21" s="2">
-        <v>20</v>
-      </c>
-      <c r="B21" s="2" t="s">
+      <c r="B25" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
         <v>25</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="192" x14ac:dyDescent="0.2">
-      <c r="A22" s="2">
-        <v>21</v>
-      </c>
-      <c r="B22" s="2" t="s">
+      <c r="B26" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="64" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
         <v>26</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="64" x14ac:dyDescent="0.2">
-      <c r="A23" s="2">
-        <v>22</v>
-      </c>
-      <c r="B23" s="2" t="s">
+      <c r="B27" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
         <v>27</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="224" x14ac:dyDescent="0.2">
-      <c r="A24" s="2">
-        <v>23</v>
-      </c>
-      <c r="B24" s="2" t="s">
+      <c r="B28" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="176" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
         <v>28</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="2">
-        <v>24</v>
-      </c>
-      <c r="B25" s="2" t="s">
+      <c r="B29" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="160" x14ac:dyDescent="0.2">
+      <c r="A30" s="3">
         <v>29</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="2">
-        <v>25</v>
-      </c>
-      <c r="B26" s="2" t="s">
+      <c r="B30" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="160" x14ac:dyDescent="0.2">
+      <c r="A31" s="3">
         <v>30</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="112" x14ac:dyDescent="0.2">
-      <c r="A27" s="2">
-        <v>26</v>
-      </c>
-      <c r="B27" s="2" t="s">
+      <c r="B31" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="64" x14ac:dyDescent="0.2">
+      <c r="A32" s="3">
+        <v>32</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A33" s="3">
         <v>31</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="64" x14ac:dyDescent="0.2">
-      <c r="A28" s="2">
-        <v>27</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A29" s="2">
-        <v>28</v>
-      </c>
-      <c r="B29" s="2" t="s">
+      <c r="B33" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="208" x14ac:dyDescent="0.2">
+      <c r="A34" s="3">
         <v>33</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="176" x14ac:dyDescent="0.2">
-      <c r="A30" s="2">
-        <v>29</v>
-      </c>
-      <c r="B30" s="2" t="s">
+      <c r="B34" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="304" x14ac:dyDescent="0.2">
+      <c r="A35" s="3">
         <v>34</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="B35" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="144" x14ac:dyDescent="0.2">
+      <c r="A36" s="3">
+        <v>35</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="176" x14ac:dyDescent="0.2">
+      <c r="A37" s="3">
+        <v>36</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A38" s="3">
+        <v>37</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="208" x14ac:dyDescent="0.2">
+      <c r="A39" s="3">
+        <v>38</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="160" x14ac:dyDescent="0.2">
+      <c r="A40" s="3">
+        <v>39</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="320" x14ac:dyDescent="0.2">
-      <c r="A31" s="2">
-        <v>30</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="2">
-        <v>33</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="2">
-        <v>34</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>37</v>
+    <row r="41" spans="1:3" ht="208" x14ac:dyDescent="0.2">
+      <c r="A41" s="3">
+        <v>40</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
